--- a/comentarios_nao_classificados.xlsx
+++ b/comentarios_nao_classificados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>comentario</t>
   </si>
@@ -43,15 +43,15 @@
     <t>Com coca cola é melhor ainda</t>
   </si>
   <si>
+    <t>Amooooooooo</t>
+  </si>
+  <si>
+    <t>No nosso Natal NUNCA falta a Coca cola Amo adoro coca cola</t>
+  </si>
+  <si>
     <t>Gosto muito</t>
   </si>
   <si>
-    <t>Amooooooooo</t>
-  </si>
-  <si>
-    <t>No nosso Natal NUNCA falta a Coca cola Amo adoro coca cola</t>
-  </si>
-  <si>
     <t>AMO COCA-COLA DE CORAÇÃO O RESTO É REFRIGERANTE...</t>
   </si>
   <si>
@@ -94,7 +94,7 @@
     <t>Irada com a coca cola. Eu ia comprar só pra ganhar o copo retrátil ao falarem que pra minha região não tem. Isso é preconceito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Será que papai Noel consegue diminuir o preço da coca cola??? Está caríssima </t>
+    <t>Será que papai Noel consegue diminuir o preço da coca cola??? Está caríssima</t>
   </si>
   <si>
     <t>Amo coca cola grande</t>
@@ -1304,10 +1304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8"/>
@@ -1377,201 +1377,186 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
         <v>45</v>
       </c>
     </row>
